--- a/download/les maquettes DGI/les fichiers excel/annex 2/maquette_teledeclaration_2022.xlsx
+++ b/download/les maquettes DGI/les fichiers excel/annex 2/maquette_teledeclaration_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,19 +423,19 @@
         <v>IF1</v>
       </c>
       <c r="B2" t="str">
-        <v>110384</v>
+        <v>H2356889</v>
       </c>
       <c r="C2" t="str">
         <v/>
       </c>
       <c r="D2" t="str">
-        <v>real madrid fc</v>
+        <v>kamal lolo</v>
       </c>
       <c r="E2" t="str">
-        <v>test adresse</v>
+        <v>zedzopipikp 354684</v>
       </c>
       <c r="F2" t="str">
-        <v>7ha sinisis maarif</v>
+        <v>klodjkozajkdp casa 5468</v>
       </c>
       <c r="G2" t="str">
         <v>LUC</v>
@@ -444,37 +444,36 @@
         <v>0</v>
       </c>
       <c r="I2" t="str">
-        <v>10000.00</v>
+        <v>16000.00</v>
       </c>
       <c r="J2" t="str">
-        <v>0.00</v>
+        <v>1600.00</v>
       </c>
       <c r="K2" t="str">
-        <v>10000.00</v>
+        <v>14400.00</v>
       </c>
       <c r="L2" t="str">
         <v>TSR.10.2018</v>
       </c>
     </row>
-    <row r="3" xml:space="preserve">
+    <row r="3">
       <c r="A3" t="str">
         <v>IF2</v>
       </c>
       <c r="B3" t="str">
-        <v>KS10293</v>
+        <v>D5458486</v>
       </c>
       <c r="C3" t="str">
         <v/>
       </c>
       <c r="D3" t="str">
-        <v>Karim benzima</v>
-      </c>
-      <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">TEST ADRESSE
-</v>
+        <v xml:space="preserve">samia nabil </v>
+      </c>
+      <c r="E3" t="str">
+        <v>KIHIUHOJOIJO</v>
       </c>
       <c r="F3" t="str">
-        <v>7ha sinisis maarif</v>
+        <v>klodjkozajkdp casa 5468</v>
       </c>
       <c r="G3" t="str">
         <v>LUC</v>
@@ -483,13 +482,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="str">
-        <v>3000.00</v>
+        <v>12000.00</v>
       </c>
       <c r="J3" t="str">
-        <v>300.00</v>
+        <v>1200.00</v>
       </c>
       <c r="K3" t="str">
-        <v>2700.00</v>
+        <v>10800.00</v>
       </c>
       <c r="L3" t="str">
         <v>TSR.10.2018</v>
@@ -500,19 +499,19 @@
         <v>IF3</v>
       </c>
       <c r="B4" t="str">
-        <v>BB102938</v>
+        <v>H3835832</v>
       </c>
       <c r="C4" t="str">
         <v/>
       </c>
       <c r="D4" t="str">
-        <v>Rodrigo silva jr</v>
+        <v>LATIFA LALA</v>
       </c>
       <c r="E4" t="str">
-        <v>test sdresse</v>
+        <v>ZADKLEZDKPM25865</v>
       </c>
       <c r="F4" t="str">
-        <v>7ha sinisis maarif</v>
+        <v>klodjkozajkdp casa 5468</v>
       </c>
       <c r="G4" t="str">
         <v>LUC</v>
@@ -521,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="str">
-        <v>2000.00</v>
+        <v>12000.00</v>
       </c>
       <c r="J4" t="str">
-        <v>0.00</v>
+        <v>1200.00</v>
       </c>
       <c r="K4" t="str">
-        <v>2000.00</v>
+        <v>10800.00</v>
       </c>
       <c r="L4" t="str">
         <v>TSR.10.2018</v>
@@ -538,19 +537,19 @@
         <v>IF4</v>
       </c>
       <c r="B5" t="str">
-        <v>BJ119649</v>
+        <v>R35456</v>
       </c>
       <c r="C5" t="str">
         <v/>
       </c>
       <c r="D5" t="str">
-        <v>Test Test</v>
+        <v>KAMAL SAMIR</v>
       </c>
       <c r="E5" t="str">
-        <v>test adresse</v>
+        <v>KPKPKLKJ24654654</v>
       </c>
       <c r="F5" t="str">
-        <v>7ha sinisis maarif</v>
+        <v>LKJDLJZAL44774</v>
       </c>
       <c r="G5" t="str">
         <v>LUC</v>
@@ -559,13 +558,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="str">
-        <v>4000.00</v>
+        <v>15000.00</v>
       </c>
       <c r="J5" t="str">
-        <v>400.00</v>
+        <v>1500.00</v>
       </c>
       <c r="K5" t="str">
-        <v>3600.00</v>
+        <v>13500.00</v>
       </c>
       <c r="L5" t="str">
         <v>TSR.10.2018</v>
@@ -576,19 +575,19 @@
         <v>IF5</v>
       </c>
       <c r="B6" t="str">
-        <v>BJ49785</v>
+        <v>35465</v>
       </c>
       <c r="C6" t="str">
         <v/>
       </c>
       <c r="D6" t="str">
-        <v>Anas tawfiqi</v>
+        <v>STE NORD 1</v>
       </c>
       <c r="E6" t="str">
-        <v>Test adresse</v>
+        <v>MPKLP¨K¨K231654</v>
       </c>
       <c r="F6" t="str">
-        <v>aaaaaaaaaaa</v>
+        <v>FREGFRG31564</v>
       </c>
       <c r="G6" t="str">
         <v>LUC</v>
@@ -597,13 +596,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="str">
-        <v>7500.00</v>
+        <v>40000.00</v>
       </c>
       <c r="J6" t="str">
-        <v>750.00</v>
+        <v>0.00</v>
       </c>
       <c r="K6" t="str">
-        <v>6750.00</v>
+        <v>40000.00</v>
       </c>
       <c r="L6" t="str">
         <v>TSR.10.2018</v>
@@ -611,40 +610,40 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>IF6</v>
+        <v/>
       </c>
       <c r="B7" t="str">
-        <v>BB779645</v>
+        <v/>
       </c>
       <c r="C7" t="str">
         <v/>
       </c>
       <c r="D7" t="str">
-        <v>Karami abdelilah</v>
+        <v/>
       </c>
       <c r="E7" t="str">
-        <v>Test adresse</v>
+        <v/>
       </c>
       <c r="F7" t="str">
-        <v>aaaaaaaaaaa</v>
+        <v/>
       </c>
       <c r="G7" t="str">
-        <v>LUC</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
       </c>
       <c r="I7" t="str">
-        <v>7500.00</v>
+        <v/>
       </c>
       <c r="J7" t="str">
-        <v>750.00</v>
+        <v/>
       </c>
       <c r="K7" t="str">
-        <v>6750.00</v>
+        <v/>
       </c>
       <c r="L7" t="str">
-        <v>TSR.10.2018</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -658,25 +657,25 @@
         <v/>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>identifiantFiscal</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>exerciceFiscalDu</v>
       </c>
       <c r="F8" t="str">
-        <v/>
+        <v>exerciceFiscalAu</v>
       </c>
       <c r="G8" t="str">
-        <v/>
+        <v>annee</v>
       </c>
       <c r="H8" t="str">
-        <v/>
+        <v>totalMntBrutLoyer</v>
       </c>
       <c r="I8" t="str">
-        <v/>
+        <v>totalMntRetenueSource</v>
       </c>
       <c r="J8" t="str">
-        <v/>
+        <v>totalMntNetLoyer</v>
       </c>
       <c r="K8" t="str">
         <v/>
@@ -696,74 +695,36 @@
         <v/>
       </c>
       <c r="D9" t="str">
-        <v>identifiantFiscal</v>
+        <v>IF</v>
       </c>
       <c r="E9" t="str">
-        <v>exerciceFiscalDu</v>
+        <v>2022-01-01</v>
       </c>
       <c r="F9" t="str">
-        <v>exerciceFiscalAu</v>
+        <v>2022-12-31</v>
       </c>
       <c r="G9" t="str">
-        <v>annee</v>
+        <v>2022</v>
       </c>
       <c r="H9" t="str">
-        <v>totalMntBrutLoyer</v>
+        <v>95000.00</v>
       </c>
       <c r="I9" t="str">
-        <v>totalMntRetenueSource</v>
+        <v>5500.00</v>
       </c>
       <c r="J9" t="str">
-        <v>totalMntNetLoyer</v>
+        <v>89500.00</v>
       </c>
       <c r="K9" t="str">
         <v/>
       </c>
       <c r="L9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v/>
-      </c>
-      <c r="B10" t="str">
-        <v/>
-      </c>
-      <c r="C10" t="str">
-        <v/>
-      </c>
-      <c r="D10" t="str">
-        <v>IF</v>
-      </c>
-      <c r="E10" t="str">
-        <v>2022-01-01</v>
-      </c>
-      <c r="F10" t="str">
-        <v>2022-12-31</v>
-      </c>
-      <c r="G10" t="str">
-        <v>2022</v>
-      </c>
-      <c r="H10" t="str">
-        <v>34000.00</v>
-      </c>
-      <c r="I10" t="str">
-        <v>2200.00</v>
-      </c>
-      <c r="J10" t="str">
-        <v>31800.00</v>
-      </c>
-      <c r="K10" t="str">
-        <v/>
-      </c>
-      <c r="L10" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/les maquettes DGI/les fichiers excel/annex 2/maquette_teledeclaration_2022.xlsx
+++ b/download/les maquettes DGI/les fichiers excel/annex 2/maquette_teledeclaration_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -444,13 +444,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="str">
-        <v>12000.00</v>
+        <v>36000.00</v>
       </c>
       <c r="J2" t="str">
-        <v>1200.00</v>
+        <v>2000.00</v>
       </c>
       <c r="K2" t="str">
-        <v>10800.00</v>
+        <v>34000.00</v>
       </c>
       <c r="L2" t="str">
         <v>TSR.10.2018</v>
@@ -520,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="str">
-        <v>9000.00</v>
+        <v>23400.00</v>
       </c>
       <c r="J4" t="str">
-        <v>900.00</v>
+        <v>1860.00</v>
       </c>
       <c r="K4" t="str">
-        <v>8100.00</v>
+        <v>21540.00</v>
       </c>
       <c r="L4" t="str">
         <v>TSR.10.2018</v>
@@ -596,13 +596,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="str">
-        <v>40000.00</v>
+        <v>60000.00</v>
       </c>
       <c r="J6" t="str">
         <v>0.00</v>
       </c>
       <c r="K6" t="str">
-        <v>40000.00</v>
+        <v>60000.00</v>
       </c>
       <c r="L6" t="str">
         <v>TSR.10.2018</v>
@@ -610,78 +610,78 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v/>
+        <v>IF6</v>
       </c>
       <c r="B7" t="str">
-        <v/>
+        <v>F4755545</v>
       </c>
       <c r="C7" t="str">
         <v/>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>NADIA LAla</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>JUIOJHJIOJH546574</v>
       </c>
       <c r="F7" t="str">
-        <v/>
+        <v>34336543</v>
       </c>
       <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <v/>
+        <v>LUC</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7" t="str">
-        <v/>
+        <v>31000.00</v>
       </c>
       <c r="J7" t="str">
-        <v/>
+        <v>2050.00</v>
       </c>
       <c r="K7" t="str">
-        <v/>
+        <v>28950.00</v>
       </c>
       <c r="L7" t="str">
-        <v/>
+        <v>TSR.10.2018</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v/>
+        <v>IF7</v>
       </c>
       <c r="B8" t="str">
-        <v/>
+        <v>L3543463</v>
       </c>
       <c r="C8" t="str">
         <v/>
       </c>
       <c r="D8" t="str">
-        <v>identifiantFiscal</v>
+        <v xml:space="preserve">FATIMA GAGA </v>
       </c>
       <c r="E8" t="str">
-        <v>exerciceFiscalDu</v>
+        <v>KJHKIHOIO2566</v>
       </c>
       <c r="F8" t="str">
-        <v>exerciceFiscalAu</v>
+        <v>ED3MKEOP2 565</v>
       </c>
       <c r="G8" t="str">
-        <v>annee</v>
-      </c>
-      <c r="H8" t="str">
-        <v>totalMntBrutLoyer</v>
+        <v>LUC</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8" t="str">
-        <v>totalMntRetenueSource</v>
+        <v>9600.00</v>
       </c>
       <c r="J8" t="str">
-        <v>totalMntNetLoyer</v>
+        <v>640.00</v>
       </c>
       <c r="K8" t="str">
-        <v/>
+        <v>8960.00</v>
       </c>
       <c r="L8" t="str">
-        <v/>
+        <v>TSR.10.2018</v>
       </c>
     </row>
     <row r="9">
@@ -695,36 +695,112 @@
         <v/>
       </c>
       <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v>identifiantFiscal</v>
+      </c>
+      <c r="E10" t="str">
+        <v>exerciceFiscalDu</v>
+      </c>
+      <c r="F10" t="str">
+        <v>exerciceFiscalAu</v>
+      </c>
+      <c r="G10" t="str">
+        <v>annee</v>
+      </c>
+      <c r="H10" t="str">
+        <v>totalMntBrutLoyer</v>
+      </c>
+      <c r="I10" t="str">
+        <v>totalMntRetenueSource</v>
+      </c>
+      <c r="J10" t="str">
+        <v>totalMntNetLoyer</v>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
         <v>IF</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E11" t="str">
         <v>2022-01-01</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F11" t="str">
         <v>2022-12-31</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G11" t="str">
         <v>2022</v>
       </c>
-      <c r="H9" t="str">
-        <v>90000.00</v>
-      </c>
-      <c r="I9" t="str">
-        <v>4500.00</v>
-      </c>
-      <c r="J9" t="str">
-        <v>85500.00</v>
-      </c>
-      <c r="K9" t="str">
-        <v/>
-      </c>
-      <c r="L9" t="str">
+      <c r="H11" t="str">
+        <v>189000.00</v>
+      </c>
+      <c r="I11" t="str">
+        <v>8950.00</v>
+      </c>
+      <c r="J11" t="str">
+        <v>180050.00</v>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/les maquettes DGI/les fichiers excel/annex 2/maquette_teledeclaration_2022.xlsx
+++ b/download/les maquettes DGI/les fichiers excel/annex 2/maquette_teledeclaration_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,19 +423,19 @@
         <v>IF1</v>
       </c>
       <c r="B2" t="str">
-        <v>HJ325474</v>
+        <v>DS45456</v>
       </c>
       <c r="C2" t="str">
         <v/>
       </c>
       <c r="D2" t="str">
-        <v>SOUMIA LALA</v>
+        <v>HEMADI TESTAWI</v>
       </c>
       <c r="E2" t="str">
-        <v>LJIOJOJ5756</v>
+        <v>AAA</v>
       </c>
       <c r="F2" t="str">
-        <v>JKHIZEHD545</v>
+        <v>AAAAAAAAAAA</v>
       </c>
       <c r="G2" t="str">
         <v>LUC</v>
@@ -444,13 +444,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="str">
-        <v>325879.00</v>
+        <v>15000.00</v>
       </c>
       <c r="J2" t="str">
-        <v>46087.90</v>
+        <v>2250.00</v>
       </c>
       <c r="K2" t="str">
-        <v>279791.10</v>
+        <v>12750.00</v>
       </c>
       <c r="L2" t="str">
         <v>TSR.10.2018</v>
@@ -461,19 +461,19 @@
         <v>IF2</v>
       </c>
       <c r="B3" t="str">
-        <v>68764654</v>
+        <v>BG432432</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>321</v>
       </c>
       <c r="D3" t="str">
-        <v>STÉ LOCATION 22</v>
+        <v>TETS TESTS</v>
       </c>
       <c r="E3" t="str">
-        <v>NHKUHUI245</v>
+        <v>11</v>
       </c>
       <c r="F3" t="str">
-        <v>KJHKHOI658767</v>
+        <v>AAAA</v>
       </c>
       <c r="G3" t="str">
         <v>LUC</v>
@@ -482,13 +482,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="str">
-        <v>22336.00</v>
+        <v>60000.00</v>
       </c>
       <c r="J3" t="str">
-        <v>0.00</v>
+        <v>9000.00</v>
       </c>
       <c r="K3" t="str">
-        <v>22336.00</v>
+        <v>51000.00</v>
       </c>
       <c r="L3" t="str">
         <v>TSR.10.2018</v>
@@ -496,501 +496,121 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>IF3</v>
+        <v/>
       </c>
       <c r="B4" t="str">
-        <v>K3545445</v>
+        <v/>
       </c>
       <c r="C4" t="str">
         <v/>
       </c>
       <c r="D4" t="str">
-        <v>HANANE TIFA</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>LSAZJDJAO5</v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v>KJHKHOI658767</v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v>LUC</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
       </c>
       <c r="I4" t="str">
-        <v>21785.00</v>
+        <v/>
       </c>
       <c r="J4" t="str">
-        <v>0.00</v>
+        <v/>
       </c>
       <c r="K4" t="str">
-        <v>21785.00</v>
+        <v/>
       </c>
       <c r="L4" t="str">
-        <v>TSR.10.2018</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>IF4</v>
+        <v/>
       </c>
       <c r="B5" t="str">
-        <v>D235689</v>
+        <v/>
       </c>
       <c r="C5" t="str">
         <v/>
       </c>
       <c r="D5" t="str">
-        <v>KAMILIA LALA</v>
+        <v>identifiantFiscal</v>
       </c>
       <c r="E5" t="str">
-        <v>LKJIDJZOJ25456</v>
+        <v>exerciceFiscalDu</v>
       </c>
       <c r="F5" t="str">
-        <v>JKHDZHOJH2514584</v>
+        <v>exerciceFiscalAu</v>
       </c>
       <c r="G5" t="str">
-        <v>LUC</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>annee</v>
+      </c>
+      <c r="H5" t="str">
+        <v>totalMntBrutLoyer</v>
       </c>
       <c r="I5" t="str">
-        <v>219000.00</v>
+        <v>totalMntRetenueSource</v>
       </c>
       <c r="J5" t="str">
-        <v>29250.00</v>
+        <v>totalMntNetLoyer</v>
       </c>
       <c r="K5" t="str">
-        <v>189750.00</v>
+        <v/>
       </c>
       <c r="L5" t="str">
-        <v>TSR.10.2018</v>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>IF5</v>
+        <v/>
       </c>
       <c r="B6" t="str">
-        <v>Z213568</v>
+        <v/>
       </c>
       <c r="C6" t="str">
         <v/>
       </c>
       <c r="D6" t="str">
-        <v>NABIL MOMO</v>
+        <v>IF</v>
       </c>
       <c r="E6" t="str">
-        <v>JBHJKHHOIJ24564</v>
+        <v>2022-01-01</v>
       </c>
       <c r="F6" t="str">
-        <v>JKHDZHOJH2514584</v>
+        <v>2022-12-31</v>
       </c>
       <c r="G6" t="str">
-        <v>LUC</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>2022</v>
+      </c>
+      <c r="H6" t="str">
+        <v>75040.47</v>
       </c>
       <c r="I6" t="str">
-        <v>127500.00</v>
+        <v>11250.00</v>
       </c>
       <c r="J6" t="str">
-        <v>5450.00</v>
+        <v>63790.47</v>
       </c>
       <c r="K6" t="str">
-        <v>122050.00</v>
+        <v/>
       </c>
       <c r="L6" t="str">
-        <v>TSR.10.2018</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>IF6</v>
-      </c>
-      <c r="B7" t="str">
-        <v>35464645</v>
-      </c>
-      <c r="C7" t="str">
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <v>STÉ LOCATION 1</v>
-      </c>
-      <c r="E7" t="str">
-        <v>LJOIJ2514524</v>
-      </c>
-      <c r="F7" t="str">
-        <v>TANGER 255</v>
-      </c>
-      <c r="G7" t="str">
-        <v>LUC</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="str">
-        <v>154985.14</v>
-      </c>
-      <c r="J7" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="K7" t="str">
-        <v>140823.43</v>
-      </c>
-      <c r="L7" t="str">
-        <v>TSR.10.2018</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>IF7</v>
-      </c>
-      <c r="B8" t="str">
-        <v>L5245475</v>
-      </c>
-      <c r="C8" t="str">
-        <v/>
-      </c>
-      <c r="D8" t="str">
-        <v>MORAD JOJO</v>
-      </c>
-      <c r="E8" t="str">
-        <v>LKJIKJJOJIOJ354564</v>
-      </c>
-      <c r="F8" t="str">
-        <v>TANGER 255</v>
-      </c>
-      <c r="G8" t="str">
-        <v>LUC</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="str">
-        <v>80514.86</v>
-      </c>
-      <c r="J8" t="str">
-        <v>6883.83</v>
-      </c>
-      <c r="K8" t="str">
-        <v>67792.74</v>
-      </c>
-      <c r="L8" t="str">
-        <v>TSR.10.2018</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>IF8</v>
-      </c>
-      <c r="B9" t="str">
-        <v>K324554</v>
-      </c>
-      <c r="C9" t="str">
-        <v/>
-      </c>
-      <c r="D9" t="str">
-        <v>KARIMA SASA</v>
-      </c>
-      <c r="E9" t="str">
-        <v>LOKOPIKOP25484</v>
-      </c>
-      <c r="F9" t="str">
-        <v>LKJZEDIJOZ</v>
-      </c>
-      <c r="G9" t="str">
-        <v>LUC</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="str">
-        <v>136000.00</v>
-      </c>
-      <c r="J9" t="str">
-        <v>20400.00</v>
-      </c>
-      <c r="K9" t="str">
-        <v>115600.00</v>
-      </c>
-      <c r="L9" t="str">
-        <v>TSR.10.2018</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>IF9</v>
-      </c>
-      <c r="B10" t="str">
-        <v>IL12254</v>
-      </c>
-      <c r="C10" t="str">
-        <v/>
-      </c>
-      <c r="D10" t="str">
-        <v>FARIDA VAVA</v>
-      </c>
-      <c r="E10" t="str">
-        <v>LKJOLJOJKPO</v>
-      </c>
-      <c r="F10" t="str">
-        <v>LKJZEDIJOZ</v>
-      </c>
-      <c r="G10" t="str">
-        <v>LUC</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="str">
-        <v>34000.00</v>
-      </c>
-      <c r="J10" t="str">
-        <v>3400.00</v>
-      </c>
-      <c r="K10" t="str">
-        <v>30600.00</v>
-      </c>
-      <c r="L10" t="str">
-        <v>TSR.10.2018</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>IF10</v>
-      </c>
-      <c r="B11" t="str">
-        <v>L525655</v>
-      </c>
-      <c r="C11" t="str">
-        <v/>
-      </c>
-      <c r="D11" t="str">
-        <v>KHALID RARA</v>
-      </c>
-      <c r="E11" t="str">
-        <v>IJIOJOJPO25456</v>
-      </c>
-      <c r="F11" t="str">
-        <v>KUHUIH36565</v>
-      </c>
-      <c r="G11" t="str">
-        <v>LUC</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="str">
-        <v>42000.00</v>
-      </c>
-      <c r="J11" t="str">
-        <v>4200.00</v>
-      </c>
-      <c r="K11" t="str">
-        <v>37800.00</v>
-      </c>
-      <c r="L11" t="str">
-        <v>TSR.10.2018</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>IF11</v>
-      </c>
-      <c r="B12" t="str">
-        <v>K3544354</v>
-      </c>
-      <c r="C12" t="str">
-        <v/>
-      </c>
-      <c r="D12" t="str">
-        <v>ABDOU FAFA</v>
-      </c>
-      <c r="E12" t="str">
-        <v>MPKLPMKPK</v>
-      </c>
-      <c r="F12" t="str">
-        <v>JKHDZHOJH2514584</v>
-      </c>
-      <c r="G12" t="str">
-        <v>LUC</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="str">
-        <v>81795.70</v>
-      </c>
-      <c r="J12" t="str">
-        <v>12269.35</v>
-      </c>
-      <c r="K12" t="str">
-        <v>69526.35</v>
-      </c>
-      <c r="L12" t="str">
-        <v>TSR.10.2018</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>IF12</v>
-      </c>
-      <c r="B13" t="str">
-        <v>L254654</v>
-      </c>
-      <c r="C13" t="str">
-        <v/>
-      </c>
-      <c r="D13" t="str">
-        <v>SAMIR DADA</v>
-      </c>
-      <c r="E13" t="str">
-        <v>KIJUIOJIOJOJK</v>
-      </c>
-      <c r="F13" t="str">
-        <v>JKHDZHOJH2514584</v>
-      </c>
-      <c r="G13" t="str">
-        <v>LUC</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="str">
-        <v>16204.30</v>
-      </c>
-      <c r="J13" t="str">
-        <v>1620.43</v>
-      </c>
-      <c r="K13" t="str">
-        <v>14583.87</v>
-      </c>
-      <c r="L13" t="str">
-        <v>TSR.10.2018</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v/>
-      </c>
-      <c r="B14" t="str">
-        <v/>
-      </c>
-      <c r="C14" t="str">
-        <v/>
-      </c>
-      <c r="D14" t="str">
-        <v/>
-      </c>
-      <c r="E14" t="str">
-        <v/>
-      </c>
-      <c r="F14" t="str">
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <v/>
-      </c>
-      <c r="H14" t="str">
-        <v/>
-      </c>
-      <c r="I14" t="str">
-        <v/>
-      </c>
-      <c r="J14" t="str">
-        <v/>
-      </c>
-      <c r="K14" t="str">
-        <v/>
-      </c>
-      <c r="L14" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v/>
-      </c>
-      <c r="B15" t="str">
-        <v/>
-      </c>
-      <c r="C15" t="str">
-        <v/>
-      </c>
-      <c r="D15" t="str">
-        <v>identifiantFiscal</v>
-      </c>
-      <c r="E15" t="str">
-        <v>exerciceFiscalDu</v>
-      </c>
-      <c r="F15" t="str">
-        <v>exerciceFiscalAu</v>
-      </c>
-      <c r="G15" t="str">
-        <v>annee</v>
-      </c>
-      <c r="H15" t="str">
-        <v>totalMntBrutLoyer</v>
-      </c>
-      <c r="I15" t="str">
-        <v>totalMntRetenueSource</v>
-      </c>
-      <c r="J15" t="str">
-        <v>totalMntNetLoyer</v>
-      </c>
-      <c r="K15" t="str">
-        <v/>
-      </c>
-      <c r="L15" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v/>
-      </c>
-      <c r="B16" t="str">
-        <v/>
-      </c>
-      <c r="C16" t="str">
-        <v/>
-      </c>
-      <c r="D16" t="str">
-        <v>IF</v>
-      </c>
-      <c r="E16" t="str">
-        <v>2022-01-01</v>
-      </c>
-      <c r="F16" t="str">
-        <v>2022-12-31</v>
-      </c>
-      <c r="G16" t="str">
-        <v>2022</v>
-      </c>
-      <c r="H16" t="str">
-        <v>1262000.00</v>
-      </c>
-      <c r="I16" t="str">
-        <v>129561.51</v>
-      </c>
-      <c r="J16" t="str">
-        <v>1112438.49</v>
-      </c>
-      <c r="K16" t="str">
-        <v/>
-      </c>
-      <c r="L16" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/les maquettes DGI/les fichiers excel/annex 2/maquette_teledeclaration_2022.xlsx
+++ b/download/les maquettes DGI/les fichiers excel/annex 2/maquette_teledeclaration_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -420,22 +420,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>IF1</v>
+        <v/>
       </c>
       <c r="B2" t="str">
-        <v>F4767464</v>
+        <v>K5443645</v>
       </c>
       <c r="C2" t="str">
         <v/>
       </c>
       <c r="D2" t="str">
-        <v xml:space="preserve">MED FARID </v>
+        <v>KHADIJA LALA</v>
       </c>
       <c r="E2" t="str">
-        <v>OIUJOIIP345654</v>
+        <v>KHDEHOI35456</v>
       </c>
       <c r="F2" t="str">
-        <v>LJDJZALJ</v>
+        <v>AAAAAA</v>
       </c>
       <c r="G2" t="str">
         <v>LUC</v>
@@ -444,36 +444,36 @@
         <v>-</v>
       </c>
       <c r="I2" t="str">
-        <v>165000.00</v>
+        <v>100000.00</v>
       </c>
       <c r="J2" t="str">
-        <v>22500.00</v>
+        <v>13500.00</v>
       </c>
       <c r="K2" t="str">
-        <v>142500.00</v>
+        <v>86500.00</v>
       </c>
       <c r="L2" t="str">
-        <v>TSR.10.2018</v>
+        <v>TRS.15.2018</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>IF2</v>
+        <v/>
       </c>
       <c r="B3" t="str">
-        <v>K5443645</v>
+        <v>L3578354</v>
       </c>
       <c r="C3" t="str">
         <v/>
       </c>
       <c r="D3" t="str">
-        <v>KHADIJA LALA</v>
+        <v>NABIL KAMAL</v>
       </c>
       <c r="E3" t="str">
-        <v>KHDEHOI35456</v>
+        <v>PMLPL35434</v>
       </c>
       <c r="F3" t="str">
-        <v>FES PKPO2545454</v>
+        <v>WWWWW</v>
       </c>
       <c r="G3" t="str">
         <v>LUC</v>
@@ -482,36 +482,36 @@
         <v>-</v>
       </c>
       <c r="I3" t="str">
-        <v>33600.00</v>
+        <v>70000.00</v>
       </c>
       <c r="J3" t="str">
-        <v>2880.00</v>
+        <v>9000.00</v>
       </c>
       <c r="K3" t="str">
-        <v>30720.00</v>
+        <v>61000.00</v>
       </c>
       <c r="L3" t="str">
-        <v>TSR.10.2018</v>
+        <v>TRS.15.2018</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>IF3</v>
+        <v/>
       </c>
       <c r="B4" t="str">
-        <v>L3578354</v>
+        <v>D524564</v>
       </c>
       <c r="C4" t="str">
         <v/>
       </c>
       <c r="D4" t="str">
-        <v>NABIL KAMAL</v>
+        <v>SAMIRA TATA</v>
       </c>
       <c r="E4" t="str">
-        <v>PMLPL35434</v>
+        <v>LKJOIFEJIOZ</v>
       </c>
       <c r="F4" t="str">
-        <v>FES PKPO2545454</v>
+        <v>QW</v>
       </c>
       <c r="G4" t="str">
         <v>LUC</v>
@@ -520,21 +520,21 @@
         <v>-</v>
       </c>
       <c r="I4" t="str">
-        <v>50400.00</v>
+        <v>60000.00</v>
       </c>
       <c r="J4" t="str">
-        <v>4320.00</v>
+        <v>7500.00</v>
       </c>
       <c r="K4" t="str">
-        <v>46080.00</v>
+        <v>52500.00</v>
       </c>
       <c r="L4" t="str">
-        <v>TSR.10.2018</v>
+        <v>TRS.15.2018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>IF4</v>
+        <v/>
       </c>
       <c r="B5" t="str">
         <v>P5874857</v>
@@ -549,7 +549,7 @@
         <v>FREGREG68796</v>
       </c>
       <c r="F5" t="str">
-        <v>LJODIEJ354</v>
+        <v>QQQQQQQQQ</v>
       </c>
       <c r="G5" t="str">
         <v>LUC</v>
@@ -558,92 +558,92 @@
         <v>-</v>
       </c>
       <c r="I5" t="str">
-        <v>200000.00</v>
+        <v>50000.00</v>
       </c>
       <c r="J5" t="str">
-        <v>30000.00</v>
+        <v>6000.00</v>
       </c>
       <c r="K5" t="str">
-        <v>170000.00</v>
+        <v>44000.00</v>
       </c>
       <c r="L5" t="str">
-        <v>TSR.10.2018</v>
+        <v>TRS.15.2018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>IF5</v>
+        <v/>
       </c>
       <c r="B6" t="str">
-        <v>D524564</v>
+        <v/>
       </c>
       <c r="C6" t="str">
         <v/>
       </c>
       <c r="D6" t="str">
-        <v>SAMIRA TATA</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>LKJOIFEJIOZ</v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v>JKHIOHOI1354654</v>
+        <v/>
       </c>
       <c r="G6" t="str">
-        <v>LUC</v>
+        <v/>
       </c>
       <c r="H6" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I6" t="str">
-        <v>200000.00</v>
+        <v/>
       </c>
       <c r="J6" t="str">
-        <v>25500.00</v>
+        <v/>
       </c>
       <c r="K6" t="str">
-        <v>174500.00</v>
+        <v/>
       </c>
       <c r="L6" t="str">
-        <v>TSR.10.2018</v>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>IF6</v>
+        <v/>
       </c>
       <c r="B7" t="str">
-        <v>BJ110393</v>
+        <v/>
       </c>
       <c r="C7" t="str">
         <v/>
       </c>
       <c r="D7" t="str">
-        <v>TRM TEST</v>
+        <v>identifiantFiscal</v>
       </c>
       <c r="E7" t="str">
-        <v>TEST</v>
+        <v>exerciceFiscalDu</v>
       </c>
       <c r="F7" t="str">
-        <v>TEST</v>
+        <v>exerciceFiscalAu</v>
       </c>
       <c r="G7" t="str">
-        <v>LUC</v>
+        <v>annee</v>
       </c>
       <c r="H7" t="str">
-        <v>-</v>
+        <v>totalMntBrutLoyer</v>
       </c>
       <c r="I7" t="str">
-        <v>30000.00</v>
+        <v>totalMntRetenueSource</v>
       </c>
       <c r="J7" t="str">
-        <v>3000.00</v>
+        <v>totalMntNetLoyer</v>
       </c>
       <c r="K7" t="str">
-        <v>27000.00</v>
+        <v/>
       </c>
       <c r="L7" t="str">
-        <v>TSR.10.2018</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -657,112 +657,36 @@
         <v/>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>IF</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>2022-01-01</v>
       </c>
       <c r="F8" t="str">
-        <v/>
+        <v>2022-12-31</v>
       </c>
       <c r="G8" t="str">
-        <v/>
+        <v>2022</v>
       </c>
       <c r="H8" t="str">
-        <v/>
+        <v>280000.00</v>
       </c>
       <c r="I8" t="str">
-        <v/>
+        <v>36000.00</v>
       </c>
       <c r="J8" t="str">
-        <v/>
+        <v>244000.00</v>
       </c>
       <c r="K8" t="str">
         <v/>
       </c>
       <c r="L8" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v/>
-      </c>
-      <c r="B9" t="str">
-        <v/>
-      </c>
-      <c r="C9" t="str">
-        <v/>
-      </c>
-      <c r="D9" t="str">
-        <v>identifiantFiscal</v>
-      </c>
-      <c r="E9" t="str">
-        <v>exerciceFiscalDu</v>
-      </c>
-      <c r="F9" t="str">
-        <v>exerciceFiscalAu</v>
-      </c>
-      <c r="G9" t="str">
-        <v>annee</v>
-      </c>
-      <c r="H9" t="str">
-        <v>totalMntBrutLoyer</v>
-      </c>
-      <c r="I9" t="str">
-        <v>totalMntRetenueSource</v>
-      </c>
-      <c r="J9" t="str">
-        <v>totalMntNetLoyer</v>
-      </c>
-      <c r="K9" t="str">
-        <v/>
-      </c>
-      <c r="L9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v/>
-      </c>
-      <c r="B10" t="str">
-        <v/>
-      </c>
-      <c r="C10" t="str">
-        <v/>
-      </c>
-      <c r="D10" t="str">
-        <v>IF</v>
-      </c>
-      <c r="E10" t="str">
-        <v>2022-01-01</v>
-      </c>
-      <c r="F10" t="str">
-        <v>2022-12-31</v>
-      </c>
-      <c r="G10" t="str">
-        <v>2022</v>
-      </c>
-      <c r="H10" t="str">
-        <v>679000.00</v>
-      </c>
-      <c r="I10" t="str">
-        <v>88200.00</v>
-      </c>
-      <c r="J10" t="str">
-        <v>590800.00</v>
-      </c>
-      <c r="K10" t="str">
-        <v/>
-      </c>
-      <c r="L10" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/les maquettes DGI/les fichiers excel/annex 2/maquette_teledeclaration_2022.xlsx
+++ b/download/les maquettes DGI/les fichiers excel/annex 2/maquette_teledeclaration_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,37 +423,37 @@
         <v/>
       </c>
       <c r="B2" t="str">
-        <v>K5443645</v>
+        <v/>
       </c>
       <c r="C2" t="str">
         <v/>
       </c>
       <c r="D2" t="str">
-        <v>KHADIJA LALA</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>KHDEHOI35456</v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v>AAAAAA</v>
+        <v/>
       </c>
       <c r="G2" t="str">
-        <v>LUC</v>
+        <v/>
       </c>
       <c r="H2" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="I2" t="str">
-        <v>100000.00</v>
+        <v/>
       </c>
       <c r="J2" t="str">
-        <v>13500.00</v>
+        <v/>
       </c>
       <c r="K2" t="str">
-        <v>86500.00</v>
+        <v/>
       </c>
       <c r="L2" t="str">
-        <v>TRS.15.2018</v>
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -461,37 +461,37 @@
         <v/>
       </c>
       <c r="B3" t="str">
-        <v>L3578354</v>
+        <v/>
       </c>
       <c r="C3" t="str">
         <v/>
       </c>
       <c r="D3" t="str">
-        <v>NABIL KAMAL</v>
+        <v>identifiantFiscal</v>
       </c>
       <c r="E3" t="str">
-        <v>PMLPL35434</v>
+        <v>exerciceFiscalDu</v>
       </c>
       <c r="F3" t="str">
-        <v>WWWWW</v>
+        <v>exerciceFiscalAu</v>
       </c>
       <c r="G3" t="str">
-        <v>LUC</v>
+        <v>annee</v>
       </c>
       <c r="H3" t="str">
-        <v>-</v>
+        <v>totalMntBrutLoyer</v>
       </c>
       <c r="I3" t="str">
-        <v>70000.00</v>
+        <v>totalMntRetenueSource</v>
       </c>
       <c r="J3" t="str">
-        <v>9000.00</v>
+        <v>totalMntNetLoyer</v>
       </c>
       <c r="K3" t="str">
-        <v>61000.00</v>
+        <v/>
       </c>
       <c r="L3" t="str">
-        <v>TRS.15.2018</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -499,194 +499,42 @@
         <v/>
       </c>
       <c r="B4" t="str">
-        <v>D524564</v>
+        <v/>
       </c>
       <c r="C4" t="str">
         <v/>
       </c>
       <c r="D4" t="str">
-        <v>SAMIRA TATA</v>
+        <v>IF</v>
       </c>
       <c r="E4" t="str">
-        <v>LKJOIFEJIOZ</v>
+        <v>2022-01-01</v>
       </c>
       <c r="F4" t="str">
-        <v>QW</v>
+        <v>2022-12-31</v>
       </c>
       <c r="G4" t="str">
-        <v>LUC</v>
+        <v>2022</v>
       </c>
       <c r="H4" t="str">
-        <v>-</v>
+        <v>0.00</v>
       </c>
       <c r="I4" t="str">
-        <v>60000.00</v>
+        <v>0.00</v>
       </c>
       <c r="J4" t="str">
-        <v>7500.00</v>
+        <v>0.00</v>
       </c>
       <c r="K4" t="str">
-        <v>52500.00</v>
+        <v/>
       </c>
       <c r="L4" t="str">
-        <v>TRS.15.2018</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v/>
-      </c>
-      <c r="B5" t="str">
-        <v>P5874857</v>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v>KARIM JALAL</v>
-      </c>
-      <c r="E5" t="str">
-        <v>FREGREG68796</v>
-      </c>
-      <c r="F5" t="str">
-        <v>QQQQQQQQQ</v>
-      </c>
-      <c r="G5" t="str">
-        <v>LUC</v>
-      </c>
-      <c r="H5" t="str">
-        <v>-</v>
-      </c>
-      <c r="I5" t="str">
-        <v>50000.00</v>
-      </c>
-      <c r="J5" t="str">
-        <v>6000.00</v>
-      </c>
-      <c r="K5" t="str">
-        <v>44000.00</v>
-      </c>
-      <c r="L5" t="str">
-        <v>TRS.15.2018</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v/>
-      </c>
-      <c r="B6" t="str">
-        <v/>
-      </c>
-      <c r="C6" t="str">
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
-      <c r="E6" t="str">
-        <v/>
-      </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <v/>
-      </c>
-      <c r="K6" t="str">
-        <v/>
-      </c>
-      <c r="L6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-      <c r="B7" t="str">
-        <v/>
-      </c>
-      <c r="C7" t="str">
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <v>identifiantFiscal</v>
-      </c>
-      <c r="E7" t="str">
-        <v>exerciceFiscalDu</v>
-      </c>
-      <c r="F7" t="str">
-        <v>exerciceFiscalAu</v>
-      </c>
-      <c r="G7" t="str">
-        <v>annee</v>
-      </c>
-      <c r="H7" t="str">
-        <v>totalMntBrutLoyer</v>
-      </c>
-      <c r="I7" t="str">
-        <v>totalMntRetenueSource</v>
-      </c>
-      <c r="J7" t="str">
-        <v>totalMntNetLoyer</v>
-      </c>
-      <c r="K7" t="str">
-        <v/>
-      </c>
-      <c r="L7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v/>
-      </c>
-      <c r="B8" t="str">
-        <v/>
-      </c>
-      <c r="C8" t="str">
-        <v/>
-      </c>
-      <c r="D8" t="str">
-        <v>IF</v>
-      </c>
-      <c r="E8" t="str">
-        <v>2022-01-01</v>
-      </c>
-      <c r="F8" t="str">
-        <v>2022-12-31</v>
-      </c>
-      <c r="G8" t="str">
-        <v>2022</v>
-      </c>
-      <c r="H8" t="str">
-        <v>280000.00</v>
-      </c>
-      <c r="I8" t="str">
-        <v>36000.00</v>
-      </c>
-      <c r="J8" t="str">
-        <v>244000.00</v>
-      </c>
-      <c r="K8" t="str">
-        <v/>
-      </c>
-      <c r="L8" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/download/les maquettes DGI/les fichiers excel/annex 2/maquette_teledeclaration_2022.xlsx
+++ b/download/les maquettes DGI/les fichiers excel/annex 2/maquette_teledeclaration_2022.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,37 +423,37 @@
         <v/>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>J2545456</v>
       </c>
       <c r="C2" t="str">
         <v/>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>JALAL MED</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>JHUJHUIH</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>ÀOO)O</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>LUC</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="I2" t="str">
-        <v/>
+        <v>15000.00</v>
       </c>
       <c r="J2" t="str">
-        <v/>
+        <v>2000.00</v>
       </c>
       <c r="K2" t="str">
-        <v/>
+        <v>13000.00</v>
       </c>
       <c r="L2" t="str">
-        <v/>
+        <v>TRS.15.2018</v>
       </c>
     </row>
     <row r="3">
@@ -461,37 +461,37 @@
         <v/>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>J207703</v>
       </c>
       <c r="C3" t="str">
         <v/>
       </c>
       <c r="D3" t="str">
-        <v>identifiantFiscal</v>
+        <v>ACHENGLI LAILA</v>
       </c>
       <c r="E3" t="str">
-        <v>exerciceFiscalDu</v>
+        <v>34 et 35 4éme étage, Immeuble Aicha, Bd Hassan II , Agadir</v>
       </c>
       <c r="F3" t="str">
-        <v>exerciceFiscalAu</v>
+        <v>SUD</v>
       </c>
       <c r="G3" t="str">
-        <v>annee</v>
+        <v>LUC</v>
       </c>
       <c r="H3" t="str">
-        <v>totalMntBrutLoyer</v>
+        <v>-</v>
       </c>
       <c r="I3" t="str">
-        <v>totalMntRetenueSource</v>
+        <v>30000.00</v>
       </c>
       <c r="J3" t="str">
-        <v>totalMntNetLoyer</v>
+        <v>4000.00</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>26000.00</v>
       </c>
       <c r="L3" t="str">
-        <v/>
+        <v>TRS.15.2018</v>
       </c>
     </row>
     <row r="4">
@@ -499,42 +499,156 @@
         <v/>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>BJ36877</v>
       </c>
       <c r="C4" t="str">
         <v/>
       </c>
       <c r="D4" t="str">
+        <v>CHARIJI ABDELLAH</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Rue Tamwanza aourir Agadir</v>
+      </c>
+      <c r="F4" t="str">
+        <v>HAY ZNAGUI AOURIR AGADIR EN FACE DE LA RAMSA</v>
+      </c>
+      <c r="G4" t="str">
+        <v>LUC</v>
+      </c>
+      <c r="H4" t="str">
+        <v>-</v>
+      </c>
+      <c r="I4" t="str">
+        <v>43000.00</v>
+      </c>
+      <c r="J4" t="str">
+        <v>4900.00</v>
+      </c>
+      <c r="K4" t="str">
+        <v>38100.00</v>
+      </c>
+      <c r="L4" t="str">
+        <v>TRS.10.2018</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>identifiantFiscal</v>
+      </c>
+      <c r="E6" t="str">
+        <v>exerciceFiscalDu</v>
+      </c>
+      <c r="F6" t="str">
+        <v>exerciceFiscalAu</v>
+      </c>
+      <c r="G6" t="str">
+        <v>annee</v>
+      </c>
+      <c r="H6" t="str">
+        <v>totalMntBrutLoyer</v>
+      </c>
+      <c r="I6" t="str">
+        <v>totalMntRetenueSource</v>
+      </c>
+      <c r="J6" t="str">
+        <v>totalMntNetLoyer</v>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
         <v>IF</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E7" t="str">
         <v>2022-01-01</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F7" t="str">
         <v>2022-12-31</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G7" t="str">
         <v>2022</v>
       </c>
-      <c r="H4" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="I4" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="J4" t="str">
-        <v>0.00</v>
-      </c>
-      <c r="K4" t="str">
-        <v/>
-      </c>
-      <c r="L4" t="str">
+      <c r="H7" t="str">
+        <v>88000.00</v>
+      </c>
+      <c r="I7" t="str">
+        <v>10900.00</v>
+      </c>
+      <c r="J7" t="str">
+        <v>77100.00</v>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
   </ignoredErrors>
 </worksheet>
 </file>